--- a/test_results/pipeline_output/statements_shp-afs-2023.xlsx
+++ b/test_results/pipeline_output/statements_shp-afs-2023.xlsx
@@ -8,6 +8,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SFP_GROUP" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCI_GROUP" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOCE_GROUP" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CF_GROUP" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SCI_COMPANY" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SOCE_COMPANY" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CF_COMPANY" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +24,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,8 +36,11 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
     </font>
+    <font>
+      <b val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -43,8 +53,14 @@
         <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9D9D9"/>
+        <bgColor rgb="00D9D9D9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -52,13 +68,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -492,7 +526,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2026-02-24 11:30:47</t>
+          <t>2026-02-26 18:17:15</t>
         </is>
       </c>
     </row>
@@ -504,8 +538,5811 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>07a90e43-5d83-4233-890b-ddaf515fadd0</t>
-        </is>
+          <t>58140e55-a1ba-47d9-9a9e-27ffe02f60c1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2023 (Rm)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2022 (Rm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Non-current assets</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>54485</v>
+      </c>
+      <c r="G2" t="n">
+        <v>51782</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Property, plant and equipment</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>16601</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16816</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Right-of-use assets</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>26781</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23725</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Intangible assets</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>4225</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3561</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Equity accounted investments</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2312</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Convertible loans</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>22</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Investment in insurance cell captive arrangements</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>128</v>
+      </c>
+      <c r="G8" t="n">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Government bonds and bills</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>716</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Loans receivable</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>647</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1510</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Deferred income tax assets</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>2875</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Trade and other receivables</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>178</v>
+      </c>
+      <c r="G12" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Current assets</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>47871</v>
+      </c>
+      <c r="G13" t="n">
+        <v>39673</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Inventories</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>25090</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Trade and other receivables</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>5697</v>
+      </c>
+      <c r="G15" t="n">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Current income tax assets</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>441</v>
+      </c>
+      <c r="G16" t="n">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Investment in insurance cell captive arrangements</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>289</v>
+      </c>
+      <c r="G17" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Government bonds and bills</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>421</v>
+      </c>
+      <c r="G18" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Loans receivable</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1346</v>
+      </c>
+      <c r="G19" t="n">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Restricted cash</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>650</v>
+      </c>
+      <c r="G20" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>12548</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>46482</v>
+      </c>
+      <c r="G22" t="n">
+        <v>39553</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Assets classified as held for sale</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1389</v>
+      </c>
+      <c r="G23" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Total assets</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>Assets</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="n">
+        <v>102356</v>
+      </c>
+      <c r="G24" s="4" t="n">
+        <v>91455</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Equity Capital and reserves attributable to owners of the parent Stated capital</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>7516</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Treasury shares</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-2624</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2583</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Reserves</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>21238</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20551</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>26130</v>
+      </c>
+      <c r="G28" t="n">
+        <v>25484</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Non-controlling interest</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>148</v>
+      </c>
+      <c r="G29" t="n">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Total equity Total equity</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>26278</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>25627</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Liabilities Non-current liabilities</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>38662</v>
+      </c>
+      <c r="G31" t="n">
+        <v>33340</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Lease liabilities</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>32482</v>
+      </c>
+      <c r="G32" t="n">
+        <v>28458</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Borrowings</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>5770</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Deferred income tax liabilities</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Provisions</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>400</v>
+      </c>
+      <c r="G35" t="n">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Current liabilities</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>37416</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32488</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Trade and other payables</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>25081</v>
+      </c>
+      <c r="G37" t="n">
+        <v>21477</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Contract liabilities</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>1023</v>
+      </c>
+      <c r="G38" t="n">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Lease liabilities</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>3100</v>
+      </c>
+      <c r="G39" t="n">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Borrowings</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>598</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Current income tax liabilities</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>786</v>
+      </c>
+      <c r="G41" t="n">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Provisions</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>224</v>
+      </c>
+      <c r="G42" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Bank overdrafts</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>6604</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4998</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Total liabilities</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr"/>
+      <c r="E44" s="4" t="inlineStr">
+        <is>
+          <t>Liabilities</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>76078</v>
+      </c>
+      <c r="G44" s="4" t="n">
+        <v>65828</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Total equity and liabilities</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr"/>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Equity</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>102356</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>91455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2023 (Rm)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2022 (Rm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Sale of merchandise</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>214956</v>
+      </c>
+      <c r="G2" t="n">
+        <v>183868</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Cost of sales</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>-163250</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-138846</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Gross profit</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr"/>
+      <c r="E4" s="4" t="inlineStr"/>
+      <c r="F4" s="4" t="n">
+        <v>51706</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>45022</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Other operating income</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>3909</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Interest revenue</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>665</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Share of profit of equity accounted investments</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>251</v>
+      </c>
+      <c r="G7" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Depreciation and amortisation</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-6305</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-5384</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Employee benefits</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-17027</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-14767</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Credit impairment losses</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-264</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-173</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Other operating expenses</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-21019</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-17288</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Trading profit</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>11916</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Exchange rate gains/(losses)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>384</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-260</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Profit on lease modifications and terminations</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>60</v>
+      </c>
+      <c r="G14" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Items of a capital nature1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Operating profit</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>12344</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>11055</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Interest received from bank account balances</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>453</v>
+      </c>
+      <c r="G17" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Finance costs</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-3665</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-2993</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Profit before income tax</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>9132</v>
+      </c>
+      <c r="G19" t="n">
+        <v>8332</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Income tax expense</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-2812</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-2553</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Profit from continuing operations</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>6320</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5779</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Loss from discontinued operations (attributable to owners of the parent)</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-419</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Profit for the year</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="n">
+        <v>5901</v>
+      </c>
+      <c r="G23" s="4" t="n">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Other comprehensive (loss)/income, net of income tax</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-1847</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2879</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Items that will not be reclassified to profit or loss Re-measurements of post-employment medical benefit obligations</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Items that may subsequently be reclassified to profit or loss Foreign currency translation differences from continuing operations</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-1719</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2845</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Foreign currency translation differences from discontinued operations</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-9</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Release of foreign currency translation reserve on disposal of discontinued operations</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>(Loss)/profit on effective net investment hedge, net of income tax</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-121</v>
+      </c>
+      <c r="G29" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B30" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income for the year Total comprehensive income for the year</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr"/>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>4054</v>
+      </c>
+      <c r="G30" s="4" t="n">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Profit attributable to: Profit attributable to:</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>5901</v>
+      </c>
+      <c r="G31" t="n">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Owners of the parent</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5886</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Non-controlling interest</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>15</v>
+      </c>
+      <c r="G33" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B34" s="4" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income attributable to:</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr"/>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="n">
+        <v>4054</v>
+      </c>
+      <c r="G34" s="4" t="n">
+        <v>8619</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Owners of the parent</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>4039</v>
+      </c>
+      <c r="G35" t="n">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Non-controlling interest</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>15</v>
+      </c>
+      <c r="G36" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income attributable to owners of the parent arises from:</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr"/>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>4039</v>
+      </c>
+      <c r="G37" s="4" t="n">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Continuing operations</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4467</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8659</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Discontinued operations</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-428</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-69</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Earnings per share for profit from continuing operations attributable to owners of the parent: Basic earnings per share from continuing operations (cents)</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>1161.4</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1055.5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Diluted earnings per share from continuing operations (cents)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>1154.6</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1048.6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Earnings per share for profit attributable to owners of the parent: Basic earnings per share (cents)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>1084.3</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1048.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>Diluted earnings per share (cents)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>1077.9</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1041.5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>* Restated for the classification of the Group’s DRC operations as discontinued operations in accordance with IFRS Discontinued Operations and the reclassification of the Group’s share of profit of equity accounted investments.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Operating expenses</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>4344</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="40" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="26" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="9" max="9"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="19" customWidth="1" min="12" max="12"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Non Controlling Interest</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Attrib Total</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>Stated Capital</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>Treasury Shares</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>Other Reserves</t>
+        </is>
+      </c>
+      <c r="L1" s="2" t="inlineStr">
+        <is>
+          <t>Retained Earnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Balance at 4 July 2021</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="n">
+        <v>21204</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>127</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>21077</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>7516</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>-1455</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>-8583</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>23599</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>8619</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>29</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>8590</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="4" t="n">
+        <v>2877</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5713</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Profit for the year</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>5740</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5711</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>5711</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Re-measurements of post-employment medical benefit obligations</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Foreign currency translation differences</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>2797</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>2797</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>2797</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Release of foreign currency translation reserve on disposal of discontinued operations</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>18</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>18</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Profit on effective net investment hedge</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>137</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>137</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>137</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Income tax effect of profit on effective net investment hedge</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-75</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>-75</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>-75</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Share-based payments – value of employee services</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>213</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>213</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>213</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Modification of cash bonus arrangement transferred from provisions</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>12</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>12</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>12</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Purchase of treasury shares</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
+        <v>-1255</v>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>-1255</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>-1255</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Treasury shares disposed</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>65</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>65</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>45</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Realisation of share-based payment reserve</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>82</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-82</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Dividends distributed to shareholders</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
+      <c r="F15" s="4" t="n">
+        <v>-3231</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>-13</v>
+      </c>
+      <c r="H15" s="4" t="n">
+        <v>-3218</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr"/>
+      <c r="J15" s="4" t="inlineStr"/>
+      <c r="K15" s="4" t="inlineStr"/>
+      <c r="L15" s="4" t="n">
+        <v>-3218</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Balance at 3 July 2022</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr"/>
+      <c r="F16" s="4" t="n">
+        <v>25627</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>143</v>
+      </c>
+      <c r="H16" s="4" t="n">
+        <v>25484</v>
+      </c>
+      <c r="I16" s="4" t="n">
+        <v>7516</v>
+      </c>
+      <c r="J16" s="4" t="n">
+        <v>-2583</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>-5563</v>
+      </c>
+      <c r="L16" s="4" t="n">
+        <v>26114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>4054</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="H17" s="4" t="n">
+        <v>4039</v>
+      </c>
+      <c r="I17" s="4" t="inlineStr"/>
+      <c r="J17" s="4" t="inlineStr"/>
+      <c r="K17" s="4" t="n">
+        <v>-1849</v>
+      </c>
+      <c r="L17" s="4" t="n">
+        <v>5888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Profit for the year</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Total comprehensive income</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>5901</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5886</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>5886</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Re-measurements of post-employment medical benefit obligations</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Foreign currency translation differences</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-1728</v>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>-1728</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-1728</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Loss on effective net investment hedge</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-164</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>-164</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-164</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Income tax effect of loss on effective net investment hedge</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Recognised in other comprehensive loss</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>43</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>43</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>43</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Share-based payments – value of employee services</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>229</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>229</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>229</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Modification of cash bonus arrangement transferred from provisions</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>11</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>11</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Purchase of treasury shares</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>-318</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>-318</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>-318</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Treasury shares disposed</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>47</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>47</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>35</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Realisation of share-based payment reserve</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>242</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-226</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Dividends distributed to shareholders</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr"/>
+      <c r="E28" s="4" t="inlineStr"/>
+      <c r="F28" s="4" t="n">
+        <v>-3372</v>
+      </c>
+      <c r="G28" s="4" t="n">
+        <v>-10</v>
+      </c>
+      <c r="H28" s="4" t="n">
+        <v>-3362</v>
+      </c>
+      <c r="I28" s="4" t="inlineStr"/>
+      <c r="J28" s="4" t="inlineStr"/>
+      <c r="K28" s="4" t="inlineStr"/>
+      <c r="L28" s="4" t="n">
+        <v>-3362</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Balance at 2 July 2023</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr"/>
+      <c r="F29" s="4" t="n">
+        <v>26278</v>
+      </c>
+      <c r="G29" s="4" t="n">
+        <v>148</v>
+      </c>
+      <c r="H29" s="4" t="n">
+        <v>26130</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>7516</v>
+      </c>
+      <c r="J29" s="4" t="n">
+        <v>-2624</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>-7398</v>
+      </c>
+      <c r="L29" s="4" t="n">
+        <v>28636</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2023 (Rm)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2022 (Rm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Shoprite Holdings Ltd and its subsidiaries for the year ended 2 July 2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Cash flows from operating activities</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>9831</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6686</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Operating profit2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>11921</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11029</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Less: investment income and interest revenue earned</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-744</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-688</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Non-cash items</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>7235</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Changes in working capital</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-175</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1761</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Cash generated from operations</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>18237</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>15005</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Settlement of cash-settled share-based payments</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>-196</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Interest received</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="G10" t="n">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Interest paid</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-3664</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3034</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Dividends received</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>262</v>
+      </c>
+      <c r="G12" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Dividends paid</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-3370</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-3228</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Income tax paid</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>36.4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-2714</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-2968</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Cash flows utilised by investing activities</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-6229</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-4061</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Investment in trademarks to expand operations</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-250</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Investment in property, plant and equipment and other intangible assets to expand operations</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-4594</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-3222</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Investment in property, plant and equipment and other intangible assets to maintain operations</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-2095</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-1909</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>12</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>Landlord contributions received</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Payment for investment in insurance cell captive arrangements</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="n">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>12</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>Investment in assets classified as held for sale</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>12</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Investment in convertible loans</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-20</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>12</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>Proceeds on disposal of property, plant and equipment3</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1045</v>
+      </c>
+      <c r="G23" t="n">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>12</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>Cash inflows as a result of the disposal of discontinued operations</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>33.2</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>49</v>
+      </c>
+      <c r="G24" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>12</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Proceeds on disposal of assets classified as held for sale</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>331</v>
+      </c>
+      <c r="G25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>Proceeds from insurance recovery for property, plant and equipment relating to social unrest</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>7</v>
+      </c>
+      <c r="G26" t="n">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>12</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Payments for government bonds and bills</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-679</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>12</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>Proceeds from government bonds and bills</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>664</v>
+      </c>
+      <c r="G28" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>12</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Loans receivable advanced</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-177</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-302</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>12</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>Loans receivable repaid</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>257</v>
+      </c>
+      <c r="G30" t="n">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>12</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Increase in ring-fenced Angola tax guarantees</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-292</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>12</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>Investment in associate</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-13</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>12</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>Investment in joint venture</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="n">
+        <v>-175</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>12</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>Acquisition of select businesses from Massmart Holdings Ltd</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>36.5</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-630</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>12</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Acquisition of other operations</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-16</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>12</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Cash flows utilised by financing activities</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-2855</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-4016</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>12</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>Repayment of lease liability obligations</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-3282</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-2961</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>12</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>Purchase of treasury shares</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-318</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-1255</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>12</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Proceeds from treasury shares disposed</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>47</v>
+      </c>
+      <c r="G39" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>12</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>Repayment of borrowings</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-1467</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-3421</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>12</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>Borrowings raised</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>2165</v>
+      </c>
+      <c r="G41" t="n">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>12</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>Net movement in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>747</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-1391</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at the beginning of the year</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr"/>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="n">
+        <v>5967</v>
+      </c>
+      <c r="G43" s="4" t="n">
+        <v>6729</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>12</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Effect of exchange rate movements on cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-412</v>
+      </c>
+      <c r="G44" t="n">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at the end of the year</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr"/>
+      <c r="E45" s="4" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>6302</v>
+      </c>
+      <c r="G45" s="4" t="n">
+        <v>5967</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>12</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>Consisting of: Restricted cash</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>358</v>
+      </c>
+      <c r="G46" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>12</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>12548</v>
+      </c>
+      <c r="G47" t="n">
+        <v>10665</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>12</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Bank overdrafts</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-6604</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-4998</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>12</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Financing activities</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>6302</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5967</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="9" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2023 (Rm)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2022 (Rm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>2711</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>5677</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Expenses</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-58</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Impairment losses</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-1834</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Profit before interest received from bank account balances</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>819</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Interest received from bank account balances</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>56</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Profit before income tax</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>875</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5655</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>Income tax expense</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-46</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Profit for the year</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>829</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Total comprehensive income for the year</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>Revenue</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="n">
+        <v>829</v>
+      </c>
+      <c r="G10" s="4" t="n">
+        <v>5595</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="" customWidth="1" min="4" max="4"/>
+    <col width="" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="19" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Attrib Total</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Total Equity</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Retained Earnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>42021</v>
+      </c>
+      <c r="G2" t="n">
+        <v>139757</v>
+      </c>
+      <c r="H2" t="n">
+        <v>5166459</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>5595</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>-3465</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>32022</v>
+      </c>
+      <c r="G5" t="n">
+        <v>161057</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5168589</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>829</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>-3637</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="n">
+        <v>22023</v>
+      </c>
+      <c r="G8" t="n">
+        <v>132977</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5165781</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" min="1" max="1"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="11" customWidth="1" min="6" max="6"/>
+    <col width="11" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>page</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>line_no</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>raw_label</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>2023 (Rm)</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>2022 (Rm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Shoprite Holdings Ltd for the year ended 2 July 2023</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Cash flows (utilised by)/from operating activities</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-1135</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Profit before interest received from bank account balances</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>819</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5623</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Less: investment income and interest revenue earned</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-2704</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-5629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Non-cash items</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1834</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>Changes in working capital</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>90</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Cash generated from/(utilised by) operations</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="G8" s="4" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>Interest received</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>44</v>
+      </c>
+      <c r="G9" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>Dividends received</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>2496</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5585</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>Dividends paid</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-3642</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-3461</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Income tax paid</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Operating activities</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-55</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>Cash flows from investing activities</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1435</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>Amounts paid to subsidiaries</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-2114</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-5649</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>Amounts received from subsidiaries</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>3549</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5653</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>Net movement in cash and cash equivalents Net movement in cash and cash equivalents</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>300</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at the beginning of the year</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr"/>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>2124</v>
+      </c>
+      <c r="G17" s="4" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="n">
+        <v>60</v>
+      </c>
+      <c r="B18" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Cash and cash equivalents at the end of the year</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr"/>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>Investing activities</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>2424</v>
+      </c>
+      <c r="G18" s="4" t="n">
+        <v>2124</v>
       </c>
     </row>
   </sheetData>
